--- a/biology/Microbiologie/Sulfuricaulis/Sulfuricaulis.xlsx
+++ b/biology/Microbiologie/Sulfuricaulis/Sulfuricaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sulfuricaulis forment un genre de bactéries gram négatives et capables d'oxyder le soufre. Elles sont assignées à la famille Acidiferrobacteraceae dans l'ordre Acidiferrobacterales, de l'embranchement des Pseudomonadota.
 </t>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie du genre Sulfuricaulis est la suivante : Sul.fu.ri.cau’lis L. neut. n. sulfur, soufre; L. masc. n. caulis, queue ou tige; N.L. masc. n. Sulfuricaulis, une queue soufrée[1],[2].
-Historique
-Le genre Sulfuricaulis a été décrit en 2016, à partir d'une souche de bactérienne isolé d'un lac au Japon[1]. L'étude phylogénique sur la base de l'ARN ribosomal 16S a positionné cette souche proche de l'espèce Sulfurifustis variabilis décrite un an auparavant. Le genre Sulfuricaulis a donc été assigné à la famille Acidiferrobacteraceae dans laquelle figuraient déjà Sulfurifustis et Acidiferrobacter[3],[4].
-Liste des espèces
-Selon la LPSN  (3 septembre 2022)[5], il n'y a actuellement qu'une seule espèce officiellement nommée dans le genre Sulfuricaulis, mais il existe des souches qui ne peuvent être classées dans l'espèce type[6] :
-Sulfuricaulis limicola, espèce type
-unclassified Sulfuricaulis sp.</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Sulfuricaulis est la suivante : Sul.fu.ri.cau’lis L. neut. n. sulfur, soufre; L. masc. n. caulis, queue ou tige; N.L. masc. n. Sulfuricaulis, une queue soufrée,.
+</t>
         </is>
       </c>
     </row>
@@ -545,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lors de sa description de 2016, le genre Sulfuricaulis comprend des bactéries gram négatives[1]. Ce sont des bacilles mobiles de 0,3 à 0,5 µm de diamètre pour une longueur de 1,2 à 6,0 μm[1]. Le contenu en bases GC est d'environ 63%. Les bactéries peuvent croître entre 8 °C et 37 °C et étant optimale entre 28 °C et 32 °C[1]. La croissance est possible dans une gamme de pH située entre 6,1 et 9,2 et dans un milieu sans NaCl[1].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Sulfuricaulis a été décrit en 2016, à partir d'une souche de bactérienne isolé d'un lac au Japon. L'étude phylogénique sur la base de l'ARN ribosomal 16S a positionné cette souche proche de l'espèce Sulfurifustis variabilis décrite un an auparavant. Le genre Sulfuricaulis a donc été assigné à la famille Acidiferrobacteraceae dans laquelle figuraient déjà Sulfurifustis et Acidiferrobacter,.
 </t>
         </is>
       </c>
@@ -576,12 +594,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (3 septembre 2022), il n'y a actuellement qu'une seule espèce officiellement nommée dans le genre Sulfuricaulis, mais il existe des souches qui ne peuvent être classées dans l'espèce type :
+Sulfuricaulis limicola, espèce type
+unclassified Sulfuricaulis sp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sulfuricaulis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulfuricaulis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description de 2016, le genre Sulfuricaulis comprend des bactéries gram négatives. Ce sont des bacilles mobiles de 0,3 à 0,5 µm de diamètre pour une longueur de 1,2 à 6,0 μm. Le contenu en bases GC est d'environ 63%. Les bactéries peuvent croître entre 8 °C et 37 °C et étant optimale entre 28 °C et 32 °C. La croissance est possible dans une gamme de pH située entre 6,1 et 9,2 et dans un milieu sans NaCl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sulfuricaulis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulfuricaulis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type HA15 de ce genre a été isolée des sédiments d'un lac, le lac Harutori (ja) au Japon[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type HA15 de ce genre a été isolée des sédiments d'un lac, le lac Harutori (ja) au Japon.
 </t>
         </is>
       </c>
